--- a/out/result.xlsx
+++ b/out/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="7547" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Java</t>
   </si>
@@ -66,7 +66,13 @@
     <t>Precision: 0.1412, Recall: 0.1493, BLEU: 0.2175, METEOR: 0.0874, ROUGE-L: 0.1209</t>
   </si>
   <si>
+    <t>Precision: 0.2137, Recall: 0.1916, BLEU: 0.0682, METEOR: 0.0955, ROUGE-L: 0.1274</t>
+  </si>
+  <si>
     <t>Precision: 0.2220, Recall: 0.2060, BLEU: 0.0731, METEOR: 0.1093, ROUGE-L: 0.0699</t>
+  </si>
+  <si>
+    <t>Precision: 0.2499, Recall: 0.2315, BLEU: 0.0932, METEOR: 0.1294, ROUGE-L: 0.0978</t>
   </si>
 </sst>
 </file>
@@ -79,14 +85,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,48 +543,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,97 +597,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1046,7 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1131,10 +1130,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1143,13 +1145,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/out/result.xlsx
+++ b/out/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7547" windowHeight="2580"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Java</t>
   </si>
@@ -51,6 +51,24 @@
     <t>Precision: 0.2283, Recall: 0.2171, BLEU: 0.1382, METEOR: 0.1315, ROUGE-L: 0.1407</t>
   </si>
   <si>
+    <t>TF-TFIDF-Greedy</t>
+  </si>
+  <si>
+    <t>Precision: 0.2617, Recall: 0.1764, BLEU: 0.1032, METEOR: 0.0987, ROUGE-L: 0.1243</t>
+  </si>
+  <si>
+    <t>TF-TFIDF-Ancestral</t>
+  </si>
+  <si>
+    <t>Precision: 0.1637, Recall: 0.1465, BLEU: 0.0893, METEOR: 0.0789, ROUGE-L: 0.0820</t>
+  </si>
+  <si>
+    <t>TF-TFIDF-TopK-100</t>
+  </si>
+  <si>
+    <t>Precision: 0.1936, Recall: 0.1624, BLEU: 0.0983, METEOR: 0.0902, ROUGE-L: 0.1002</t>
+  </si>
+  <si>
     <t>GPT4*(100)</t>
   </si>
   <si>
@@ -73,6 +91,18 @@
   </si>
   <si>
     <t>Precision: 0.2499, Recall: 0.2315, BLEU: 0.0932, METEOR: 0.1294, ROUGE-L: 0.0978</t>
+  </si>
+  <si>
+    <t>Precision: 0.3189, Recall: 0.2440, BLEU: 0.0885, METEOR: 0.1452, ROUGE-L: 0.1320</t>
+  </si>
+  <si>
+    <t>Precision: 0.2125, Recall: 0.1984, BLEU: 0.0662, METEOR: 0.1039, ROUGE-L: 0.0628</t>
+  </si>
+  <si>
+    <t>Precision: 0.2283, Recall: 0.2158, BLEU: 0.0763, METEOR: 0.1154, ROUGE-L: 0.0816</t>
+  </si>
+  <si>
+    <t>Precision: 0.2101, Recall: 0.2307, BLEU: 0.2673, METEOR: 0.1985, ROUGE-L: 0.2040</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1111,11 +1141,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1124,49 +1152,108 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/out/result.xlsx
+++ b/out/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="24923" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,93 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>BLEU</t>
+  </si>
+  <si>
+    <t>METEOR</t>
+  </si>
+  <si>
+    <t>ROUGE-L</t>
+  </si>
   <si>
     <t>Java</t>
   </si>
   <si>
+    <t>Transformer-Greedy</t>
+  </si>
+  <si>
+    <t>Transformer-TopK-100</t>
+  </si>
+  <si>
+    <t>Transformer-Ancestral</t>
+  </si>
+  <si>
+    <t>TF-TFIDF-Greedy</t>
+  </si>
+  <si>
+    <t>TF-TFIDF-TopK-100</t>
+  </si>
+  <si>
+    <t>TF-TFIDF-Ancestral</t>
+  </si>
+  <si>
     <t>VSM-RAND</t>
   </si>
   <si>
-    <t>Precision: 0.1323, Recall: 0.1802, BLEU: 0.1802, METEOR: 0.0982, ROUGE-L: 0.0967</t>
-  </si>
-  <si>
     <t>VSM-TFIDF</t>
   </si>
   <si>
-    <t>Precision: 0.1524, Recall: 0.2142, BLEU: 0.2232, METEOR: 0.1199, ROUGE-L: 0.1195</t>
-  </si>
-  <si>
-    <t>Transformer-Greedy</t>
-  </si>
-  <si>
-    <t>Precision: 0.3465, Recall: 0.2205, BLEU: 0.1311, METEOR: 0.1477, ROUGE-L: 0.1947</t>
-  </si>
-  <si>
-    <t>Transformer-Ancestral</t>
-  </si>
-  <si>
-    <t>Precision: 0.2028, Recall: 0.1965, BLEU: 0.1205, METEOR: 0.1156, ROUGE-L: 0.1188</t>
-  </si>
-  <si>
-    <t>Transformer-TopK-100</t>
-  </si>
-  <si>
-    <t>Precision: 0.2283, Recall: 0.2171, BLEU: 0.1382, METEOR: 0.1315, ROUGE-L: 0.1407</t>
-  </si>
-  <si>
-    <t>TF-TFIDF-Greedy</t>
-  </si>
-  <si>
-    <t>Precision: 0.2617, Recall: 0.1764, BLEU: 0.1032, METEOR: 0.0987, ROUGE-L: 0.1243</t>
-  </si>
-  <si>
-    <t>TF-TFIDF-Ancestral</t>
-  </si>
-  <si>
-    <t>Precision: 0.1637, Recall: 0.1465, BLEU: 0.0893, METEOR: 0.0789, ROUGE-L: 0.0820</t>
-  </si>
-  <si>
-    <t>TF-TFIDF-TopK-100</t>
-  </si>
-  <si>
-    <t>Precision: 0.1936, Recall: 0.1624, BLEU: 0.0983, METEOR: 0.0902, ROUGE-L: 0.1002</t>
-  </si>
-  <si>
     <t>GPT4*(100)</t>
   </si>
   <si>
-    <t>Precision: 0.3234, Recall: 0.3122, BLEU: 0.2721, METEOR: 0.2116, ROUGE-L: 0.2400</t>
-  </si>
-  <si>
     <t>Python</t>
-  </si>
-  <si>
-    <t>Precision: 0.1081, Recall: 0.1130, BLEU: 0.1869, METEOR: 0.0691, ROUGE-L: 0.0923</t>
-  </si>
-  <si>
-    <t>Precision: 0.1412, Recall: 0.1493, BLEU: 0.2175, METEOR: 0.0874, ROUGE-L: 0.1209</t>
-  </si>
-  <si>
-    <t>Precision: 0.2137, Recall: 0.1916, BLEU: 0.0682, METEOR: 0.0955, ROUGE-L: 0.1274</t>
-  </si>
-  <si>
-    <t>Precision: 0.2220, Recall: 0.2060, BLEU: 0.0731, METEOR: 0.1093, ROUGE-L: 0.0699</t>
-  </si>
-  <si>
-    <t>Precision: 0.2499, Recall: 0.2315, BLEU: 0.0932, METEOR: 0.1294, ROUGE-L: 0.0978</t>
-  </si>
-  <si>
-    <t>Precision: 0.3189, Recall: 0.2440, BLEU: 0.0885, METEOR: 0.1452, ROUGE-L: 0.1320</t>
-  </si>
-  <si>
-    <t>Precision: 0.2125, Recall: 0.1984, BLEU: 0.0662, METEOR: 0.1039, ROUGE-L: 0.0628</t>
-  </si>
-  <si>
-    <t>Precision: 0.2283, Recall: 0.2158, BLEU: 0.0763, METEOR: 0.1154, ROUGE-L: 0.0816</t>
-  </si>
-  <si>
-    <t>Precision: 0.2101, Recall: 0.2307, BLEU: 0.2673, METEOR: 0.1985, ROUGE-L: 0.2040</t>
   </si>
 </sst>
 </file>
@@ -1073,181 +1034,414 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="1" spans="3:7">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.3465</v>
+      </c>
+      <c r="D2">
+        <v>0.2205</v>
+      </c>
+      <c r="E2">
+        <v>0.1311</v>
+      </c>
+      <c r="F2">
+        <v>0.1477</v>
+      </c>
+      <c r="G2">
+        <v>0.1947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.2283</v>
+      </c>
+      <c r="D3">
+        <v>0.2171</v>
+      </c>
+      <c r="E3">
+        <v>0.1382</v>
+      </c>
+      <c r="F3">
+        <v>0.1315</v>
+      </c>
+      <c r="G3">
+        <v>0.1407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.2028</v>
+      </c>
+      <c r="D4">
+        <v>0.1965</v>
+      </c>
+      <c r="E4">
+        <v>0.1205</v>
+      </c>
+      <c r="F4">
+        <v>0.1156</v>
+      </c>
+      <c r="G4">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.2617</v>
+      </c>
+      <c r="D5">
+        <v>0.1764</v>
+      </c>
+      <c r="E5">
+        <v>0.1032</v>
+      </c>
+      <c r="F5">
+        <v>0.0987</v>
+      </c>
+      <c r="G5">
+        <v>0.1243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>0.1936</v>
+      </c>
+      <c r="D6">
+        <v>0.1624</v>
+      </c>
+      <c r="E6">
+        <v>0.0983</v>
+      </c>
+      <c r="F6">
+        <v>0.0902</v>
+      </c>
+      <c r="G6">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7">
+        <v>0.1637</v>
+      </c>
+      <c r="D7">
+        <v>0.1465</v>
+      </c>
+      <c r="E7">
+        <v>0.0893</v>
+      </c>
+      <c r="F7">
+        <v>0.0789</v>
+      </c>
+      <c r="G7">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.1323</v>
+      </c>
+      <c r="D8">
+        <v>0.1802</v>
+      </c>
+      <c r="E8">
+        <v>0.1802</v>
+      </c>
+      <c r="F8">
+        <v>0.0982</v>
+      </c>
+      <c r="G8">
+        <v>0.0967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.1524</v>
+      </c>
+      <c r="D9">
+        <v>0.2142</v>
+      </c>
+      <c r="E9">
+        <v>0.2232</v>
+      </c>
+      <c r="F9">
+        <v>0.1199</v>
+      </c>
+      <c r="G9">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.3234</v>
+      </c>
+      <c r="D10">
+        <v>0.3122</v>
+      </c>
+      <c r="E10">
+        <v>0.2721</v>
+      </c>
+      <c r="F10">
+        <v>0.2116</v>
+      </c>
+      <c r="G10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.2137</v>
+      </c>
+      <c r="D11">
+        <v>0.1916</v>
+      </c>
+      <c r="E11">
+        <v>0.0682</v>
+      </c>
+      <c r="F11">
+        <v>0.0955</v>
+      </c>
+      <c r="G11">
+        <v>0.1274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.2499</v>
+      </c>
+      <c r="D12">
+        <v>0.2315</v>
+      </c>
+      <c r="E12">
+        <v>0.0932</v>
+      </c>
+      <c r="F12">
+        <v>0.1294</v>
+      </c>
+      <c r="G12">
+        <v>0.0978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.222</v>
+      </c>
+      <c r="D13">
+        <v>0.206</v>
+      </c>
+      <c r="E13">
+        <v>0.0731</v>
+      </c>
+      <c r="F13">
+        <v>0.1093</v>
+      </c>
+      <c r="G13">
+        <v>0.0699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0.3189</v>
+      </c>
+      <c r="D14">
+        <v>0.244</v>
+      </c>
+      <c r="E14">
+        <v>0.0885</v>
+      </c>
+      <c r="F14">
+        <v>0.1452</v>
+      </c>
+      <c r="G14">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0.2283</v>
+      </c>
+      <c r="D15">
+        <v>0.2158</v>
+      </c>
+      <c r="E15">
+        <v>0.0763</v>
+      </c>
+      <c r="F15">
+        <v>0.1154</v>
+      </c>
+      <c r="G15">
+        <v>0.0816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16">
+        <v>0.2125</v>
+      </c>
+      <c r="D16">
+        <v>0.1984</v>
+      </c>
+      <c r="E16">
+        <v>0.0662</v>
+      </c>
+      <c r="F16">
+        <v>0.1039</v>
+      </c>
+      <c r="G16">
+        <v>0.0628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.1081</v>
+      </c>
+      <c r="D17">
+        <v>0.113</v>
+      </c>
+      <c r="E17">
+        <v>0.1869</v>
+      </c>
+      <c r="F17">
+        <v>0.0691</v>
+      </c>
+      <c r="G17">
+        <v>0.0923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.1412</v>
+      </c>
+      <c r="D18">
+        <v>0.1493</v>
+      </c>
+      <c r="E18">
+        <v>0.2175</v>
+      </c>
+      <c r="F18">
+        <v>0.0874</v>
+      </c>
+      <c r="G18">
+        <v>0.1209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>0.2101</v>
+      </c>
+      <c r="D19">
+        <v>0.2307</v>
+      </c>
+      <c r="E19">
+        <v>0.2673</v>
+      </c>
+      <c r="F19">
+        <v>0.1985</v>
+      </c>
+      <c r="G19">
+        <v>0.204</v>
       </c>
     </row>
   </sheetData>
